--- a/biology/Zoologie/Aigle_montagnard/Aigle_montagnard.xlsx
+++ b/biology/Zoologie/Aigle_montagnard/Aigle_montagnard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nisaetus nipalensis
 L'Aigle montagnard (Nisaetus nipalensis) est une espèce d'oiseaux appartenant à la famille des Accipitridae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un rapace moyen à grand rapace d'environ 70 à 72 cm de longueur. L'adulte typique a le dessus brun et le ventre pâle, sauf sur la face inférieure des rémiges et la queue. La poitrine et le ventre et le dessous des ailes sont fortement striés. Les ailes sont larges avec un bord incurvé de fuite, et sont tenues en V peu marqué en vol. Les deux sexes sont semblables, mais les jeunes sont souvent plus blanches à tête.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se reproduit dans le sud de l'Asie depuis le Pakistan, l'Inde et le Sri Lanka jusqu'à la Chine, Taïwan et le Japon.
 </t>
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des deux sous-espèces suivantes :
 Nisaetus nipalensis nipalensis  Hodgson 1836
